--- a/src/main/resources/excel/invoice_template.xlsx
+++ b/src/main/resources/excel/invoice_template.xlsx
@@ -95,11 +95,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;\-;\-;@"/>
-    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,120 +292,99 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,121 +691,124 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="21"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="4" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="28" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="34" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="29"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="24"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="18"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -843,13 +820,15 @@
       <c r="P4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="30"/>
+      <c r="R4" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -866,11 +845,10 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
